--- a/finalData/Costfinal.xlsx
+++ b/finalData/Costfinal.xlsx
@@ -1,141 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u715216\SummerInternProject2019\finalData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Tweet</t>
-  </si>
-  <si>
-    <t>Favorites</t>
-  </si>
-  <si>
-    <t>Retweets</t>
-  </si>
-  <si>
-    <t>Sentiment</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Category1</t>
-  </si>
-  <si>
-    <t>Category2</t>
-  </si>
-  <si>
-    <t>Category3</t>
-  </si>
-  <si>
-    <t>keyPhrases</t>
-  </si>
-  <si>
-    <t>News</t>
-  </si>
-  <si>
-    <t>Irrelevent</t>
-  </si>
-  <si>
-    <t>2019-06-24 12:08:10</t>
-  </si>
-  <si>
-    <t>2019-06-24 05:35:52</t>
-  </si>
-  <si>
-    <t>IMPORTANT NEWS :\n#TOLUENE SLIP IN EUROPE\n.\n.\nClick Here: https://t.co/0cxH5HELdU          \n.\n.\n#Petrochemicals https://t.co/7C9E26CTIe</t>
-  </si>
-  <si>
-    <t>#BreakingNews :\n#PROPYLENE PRICES FALL IN ASIA\n.\n.\nClick Here: https://t.co/o4SA24JE5F\n.\n.\n#Petrochemicals https://t.co/WChGmLrmeU</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>['TOLUENE SLIP', 'IMPORTANT NEWS', 'EUROPE', 'Petrochemicals']</t>
-  </si>
-  <si>
-    <t>['PROPYLENE PRICES', 'BreakingNews', 'ASIA']</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Aesthetic</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Sustainability</t>
-  </si>
-  <si>
-    <t>Art</t>
-  </si>
-  <si>
-    <t>Convenience</t>
-  </si>
-  <si>
-    <t>Innovation</t>
-  </si>
-  <si>
-    <t>Advertisement</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,29 +68,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -470,218 +381,459 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="135.140625" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="135.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tweet</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Favorites</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Retweets</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Sentiment</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Category1</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Category2</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Category3</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>keyPhrases</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>News</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Irrelevent</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2019-06-24 12:08:10</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IMPORTANT NEWS :\n#TOLUENE SLIP IN EUROPE\n.\n.\nClick Here: https://t.co/0cxH5HELdU          \n.\n.\n#Petrochemicals https://t.co/7C9E26CTIe</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Innovation</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>['TOLUENE SLIP', 'IMPORTANT NEWS', 'EUROPE', 'Petrochemicals']</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2019-06-24 05:35:52</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>#BreakingNews :\n#PROPYLENE PRICES FALL IN ASIA\n.\n.\nClick Here: https://t.co/o4SA24JE5F\n.\n.\n#Petrochemicals https://t.co/WChGmLrmeU</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.5</v>
       </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>['PROPYLENE PRICES', 'BreakingNews', 'ASIA']</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-06-25 11:30:18</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IMPORTANT NEWS :\n#METHANOL PRICES EDGE HIGHER IN ASIA\n.\n.\nClick Here: https://t.co/0cxH5HELdU             \n.\n. https://t.co/trKCgRAvBx</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.5</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>['METHANOL PRICES EDGE HIGHER', 'ASIA', 'IMPORTANT NEWS']</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2019-06-25 09:28:35</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IMPORTANT NEWS :\n#BENZENE RATES IN ASIA EDGE HIGHER\n.\n.\nClick Here:  https://t.co/0cxH5HELdU            \n.\n. https://t.co/ZIRwevkQdx</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['BENZENE RATES', 'ASIA EDGE HIGHER', 'IMPORTANT NEWS']</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2019-06-24 12:08:10</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IMPORTANT NEWS :\n#TOLUENE SLIP IN EUROPE\n.\n.\nClick Here: https://t.co/0cxH5HELdU          \n.\n.\n#Petrochemicals https://t.co/7C9E26CTIe</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['TOLUENE SLIP', 'IMPORTANT NEWS', 'EUROPE', 'Petrochemicals']</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2019-06-24 05:35:52</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>#BreakingNews :\n#PROPYLENE PRICES FALL IN ASIA\n.\n.\nClick Here: https://t.co/o4SA24JE5F\n.\n.\n#Petrochemicals https://t.co/WChGmLrmeU</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['PROPYLENE PRICES', 'BreakingNews', 'ASIA']</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Sheet 2'!$B$2:$B$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Aesthetic</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sustainability</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Convenience</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Innovation</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Advertisement</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/finalData/Costfinal.xlsx
+++ b/finalData/Costfinal.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21908"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E8F1BAF171C1524C32BB81E0263DF22AAC3E8592" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E8F1BAF171C1524C32BB81E0263DF22AAC3E8592" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{842F3692-75D9-475F-9430-4203168DDAAB}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1113,15 +1113,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD6DE5DB5A34A749BF3DACFD3E2D6C60" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="168b8d325a13eff6fb375030edbea8e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d0f83324-e24c-4415-8ea4-7b3a4c207790" xmlns:ns3="9efc881c-c5bb-47d9-bf3a-c9d7f253646b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="818ea96dd1355113715be5cc0484ce34" ns2:_="" ns3:_="">
     <xsd:import namespace="d0f83324-e24c-4415-8ea4-7b3a4c207790"/>
@@ -1286,6 +1277,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1293,11 +1293,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78653AF2-726C-4342-983E-7ABF3F3F97FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51F3F592-FB41-430B-B927-0458F8B60149}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51F3F592-FB41-430B-B927-0458F8B60149}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78653AF2-726C-4342-983E-7ABF3F3F97FB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
